--- a/数据整理/stocks/A股/上证主板/600881-亚泰集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600881-亚泰集团.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.50</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.73</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4319</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.50</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.73</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.88</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.40</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2453</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.88</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.40</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600881-亚泰集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600881-亚泰集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600881-亚泰集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600881-亚泰集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -878,4 +879,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600881-亚泰集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600881-亚泰集团.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -887,7 +888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,17 +899,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -918,14 +939,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.37</v>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3481</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -934,14 +977,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>69.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1704</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.35</v>
       </c>
     </row>
     <row r="4">
@@ -950,13 +1015,249 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600881-亚泰集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600881-亚泰集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.84</v>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3704</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1219,14 +1262,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.37</v>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1634</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1235,14 +1300,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.35</v>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1251,13 +1338,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.55</v>
       </c>
     </row>
